--- a/FrontEnd/Data/joel_rosario.xlsx
+++ b/FrontEnd/Data/joel_rosario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhernieevangelista/Desktop/ClassRepos/Off_to_the_Races/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhernieevangelista/Desktop/ClassRepos/Off_to_the_Races/FrontEnd/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E981FB02-913D-2947-AA5C-FD5D5AEFD4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE366C1-9032-AD43-AC0D-94A0CA6CC08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="-18180" windowWidth="27640" windowHeight="15580" xr2:uid="{52BFAA45-9AE5-9949-87BE-D85811B90577}"/>
+    <workbookView xWindow="3960" yWindow="-18520" windowWidth="27640" windowHeight="15580" xr2:uid="{52BFAA45-9AE5-9949-87BE-D85811B90577}"/>
   </bookViews>
   <sheets>
     <sheet name="joel_weight" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="4">
   <si>
     <t>weight_carried</t>
   </si>
   <si>
     <t>race_date</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Joel Rosario</t>
   </si>
 </sst>
 </file>
@@ -394,1006 +400,1379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901BB71-B5BD-E445-BD14-3BCD806F00D6}">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>43582</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>120.89449886963</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>43583</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>120.077025232403</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>43590</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>120.58752166377801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>43594</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>120.321848739495</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>43595</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>43596</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>120.924829157175</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <v>43597</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>120.415036045314</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
         <v>43601</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>122.42796967144</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>43604</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>120.43256498283399</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>43608</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>119.94140625</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
         <v>43609</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>120.482332155477</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
         <v>43610</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>118.7812700449</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
         <v>43611</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>119.618923611111</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
         <v>43615</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>120.433004231311</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>43616</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
         <v>43617</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>122.12494929006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>43618</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>120.39626168224299</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>43622</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>120.897545357524</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>43623</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>119.3365285861</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
         <v>43624</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>122.73556304138501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>43625</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>120.66103484688399</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>43628</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>118.94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>43629</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>121.648016701461</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>43630</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>120.87608613524699</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
         <v>43632</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>121.543670264965</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
         <v>43635</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
         <v>43636</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>122.18791500664</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
         <v>43638</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>121.795966386554</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
         <v>43639</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>119.437131630648</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
         <v>43642</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>120.509615384615</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
         <v>43643</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>120.810732113144</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
         <v>43644</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>122.738768718801</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
         <v>43645</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>119.747783251231</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
         <v>43646</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>119.630769230769</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
         <v>43649</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>121.768372703412</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
         <v>43650</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
         <v>43651</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>121.851485148514</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
         <v>43652</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>120.493638676844</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
         <v>43653</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>119.96834264432</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
         <v>43657</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>119.86772315653199</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
         <v>43658</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>121.581685296646</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
         <v>43660</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>121.247016087182</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
         <v>43663</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>119.521031968592</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
         <v>43664</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>119.484901531728</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
         <v>43665</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>120.49339933993301</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
         <v>43667</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>119.592286501377</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
         <v>43670</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>120.35370919881299</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
         <v>43671</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>119.940418679549</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
         <v>43672</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>118.88702460850099</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>43673</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>120.69463493344</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
         <v>43674</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>121.647681451612</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
         <v>43677</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>119.44851833249599</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
         <v>43678</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>120.70154230929499</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
         <v>43679</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>123.515243902439</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
         <v>43680</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>120.700989208633</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
         <v>43681</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>120.538642473118</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
         <v>43684</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>119.94774657086801</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
         <v>43685</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>122.76336546888599</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
         <v>43686</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>122.894270122783</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
         <v>43687</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>120.544090056285</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
         <v>43688</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>118.891036906854</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
         <v>43691</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>121.02854778651199</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
         <v>43692</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>119.95234375</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
         <v>43693</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>120.08153580672899</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
         <v>43694</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>120.74079065588499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
         <v>43695</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>122.75179856115101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
         <v>43698</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>119.677944862155</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
         <v>43699</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>120.35749128919799</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
         <v>43700</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>119.608442503639</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
         <v>43701</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>121.413515687851</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
         <v>43702</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>119.669152542372</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
         <v>43705</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
         <v>43706</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>119.158232931726</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
         <v>43707</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>121.063772954924</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
         <v>43708</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>120.71602126044</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
         <v>43709</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>119.566652001759</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1">
         <v>43710</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>121.441947565543</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
         <v>43714</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>119.54564831261099</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
         <v>43716</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>119.70706700842101</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
         <v>43719</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>121.82144663631701</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
         <v>43721</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>120.498293515358</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
         <v>43723</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>120.05762543467399</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1">
         <v>43726</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>120.488555643251</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1">
         <v>43727</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="1">
         <v>43728</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>122.013026052104</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="1">
         <v>43730</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>121.730268510984</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1">
         <v>43733</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>121.833667334669</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1">
         <v>43734</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>122.030754892823</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1">
         <v>43736</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>120.118816930137</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
         <v>43737</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>120.577123050259</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
         <v>43740</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>121.996751740139</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
         <v>43741</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>120.564174894217</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1">
         <v>43744</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>120.85757884028401</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="1">
         <v>43750</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>119.553401748384</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1">
         <v>43751</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>120.379111111111</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="1">
         <v>43752</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>119.893203883495</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1">
         <v>43754</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>119.595238095238</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="1">
         <v>43757</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>121.776136363636</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1">
         <v>43758</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>121.632945091514</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
         <v>43761</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1">
         <v>43763</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>120.34693877551</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
         <v>43765</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="1">
         <v>43776</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>120.302752293577</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="1">
         <v>43777</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>119.265034965034</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="1">
         <v>43778</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>121.265625</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1">
         <v>43779</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>120.373243933588</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1">
         <v>43780</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>120.330275229357</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1">
         <v>43783</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>121.274842462433</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1">
         <v>43784</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>121.40391791044701</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="1">
         <v>43785</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>119.921133492659</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="1">
         <v>43786</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>119.98334149926499</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1">
         <v>43789</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>121.141598489616</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="1">
         <v>43790</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>121.133040935672</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1">
         <v>43791</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>119.909677419354</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="1">
         <v>43792</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>121.327127659574</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="1">
         <v>43793</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>119.688878000979</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="1">
         <v>43796</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>119.50723140495801</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="1">
         <v>43799</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>121.326505016722</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="1">
         <v>43800</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>120.871316306483</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="1">
         <v>43804</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>119.972316658572</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="1">
         <v>43805</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>121.93270821842199</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1">
         <v>43806</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>118.93764367816</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="1">
         <v>43807</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>121.122935779816</v>
       </c>
     </row>
